--- a/Concepts/eos_ram_calc.xlsx
+++ b/Concepts/eos_ram_calc.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\My_Learning_EOS\Concepts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D4285-D92D-4BA4-9C63-168D7814D998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E5901B2-5B56-4D9E-AD2C-960874812EBD}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EOS RAM" sheetId="1" r:id="rId1"/>
     <sheet name="TOE RIDE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,25 +90,6 @@
   </si>
   <si>
     <t>n=1000</t>
-  </si>
-  <si>
-    <t>$ cleosm get table toeriderex toeriderex ridemarket
-{
-  "rows": [{
-      "supply": "10000000000.0000 RAMCORE",
-      "base": {
-        "balance": "118434332933 RAM",
-        "weight": "0.50000000000000000"
-      },
-      "quote": {
-        "balance": "5696097.1633 EOS",
-        "weight": "0.50000000000000000"
-      }
-    }
-  ],
-  "more": false,
-  "next_key": ""
-}</t>
   </si>
   <si>
     <t>M-2 (Recommended)</t>
@@ -167,16 +142,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> buyride(ride_qty) ACTION
+      <t xml:space="preserve"> buyram(eos_qty) ACTION
 • after every buy/sell the RAM gets added/substracted to/from the RAM balance. And the corresponding EOS gets added/substracter to/from the EOS balance</t>
     </r>
+  </si>
+  <si>
+    <t>$ cleosm get table toeriderex toeriderex ridemarket
+{
+  "rows": [{ 
+     "base": {
+        "balance": "118434332933 RIDE",
+        "weight": "0.50000000000000000"
+      },
+      "quote": {
+        "balance": "5696097.1633 TOE",
+        "weight": "0.50000000000000000"
+      }
+    }
+  ],
+  "more": false,
+  "next_key": ""
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,37 +333,37 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -483,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -677,278 +670,278 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E2172-60EC-45BC-B30D-3BD856BB5509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2">
         <v>5696097.1633000001</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>118434332933</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
         <f>A1/(A2*0.5)*1024</f>
         <v>9.8498524047395966E-2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <f>A4/2</f>
         <v>4.9249262023697983E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <f>A1/(1 + A2/1024)</f>
         <v>4.9249261597881899E-2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="F15" s="2" t="s">
+    <row r="10" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="6:12">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="6:12">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="6:12">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="6:12">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="6:12">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -963,322 +956,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1301F-53E1-470F-88C8-769DA59EBEE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2">
         <v>1289234</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>10534334</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
         <f>A1/(A2*0.5)</f>
         <v>0.24476801286156297</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4/2</f>
         <v>0.12238400643078148</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5">
         <f>1*A1/(1 + A2)</f>
         <v>0.12238399481315147</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
         <f>2*A1/(2 + A2)</f>
         <v>0.24476796639104734</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
         <f>1000*A1/(1000 + A2)</f>
         <v>122.37238990239892</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="6:12">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="6:12">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="6:12">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="6:12">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="6:12">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="6:12">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
